--- a/biology/Zoologie/Hime_japonica/Hime_japonica.xlsx
+++ b/biology/Zoologie/Hime_japonica/Hime_japonica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hime japonica est une espèce de poissons marins téléostéens de la famille des Aulopidae.
 </t>
@@ -511,13 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Hime japonica a été décrite pour la première fois en 1877 par l'ichtyologue britannique Albert Günther sous le protonyme Aulopus japonicus[1].
-Synonymie
-Selon Catalogue of Life [2]
-Aulopus japonicus, Günther
-Hime japonicus, (Günther)</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hime japonica a été décrite pour la première fois en 1877 par l'ichtyologue britannique Albert Günther sous le protonyme Aulopus japonicus.
+</t>
         </is>
       </c>
     </row>
@@ -542,14 +553,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Systématique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hime japonica possède un corps allongé qui varie entre 15,3 et 22,3 cm, et dont l'holotype mesure 16,5 cm[3].
-Comme les membres de la famille des Aulopidae, l'espèce a une nageoire dorsale dont la longueur dépasse la moitié de celle de l'ensemble du corps.
-</t>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life 
+Aulopus japonicus, Günther
+Hime japonicus, (Günther)</t>
         </is>
       </c>
     </row>
@@ -574,12 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se croise dans l'océan Pacifique, au large du Japon, de Taiwan et de la Corée à des profondeurs variant de 88 à 235 m[4].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hime japonica possède un corps allongé qui varie entre 15,3 et 22,3 cm, et dont l'holotype mesure 16,5 cm.
+Comme les membres de la famille des Aulopidae, l'espèce a une nageoire dorsale dont la longueur dépasse la moitié de celle de l'ensemble du corps.
 </t>
         </is>
       </c>
@@ -605,12 +625,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Étymologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, japonica fait référence à son lieu de découverte[5].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se croise dans l'océan Pacifique, au large du Japon, de Taiwan et de la Corée à des profondeurs variant de 88 à 235 m.
 </t>
         </is>
       </c>
@@ -636,16 +658,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Comportement</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Proies
-Hime japonica se nourrit principalement de poissons osseux et de crustacés de taille inférieure à la sienne[3].
-Prédateurs
-Parasites
-Hime japonica est l'hôte de plusieurs endoparasites nématodes comme Pseudopecoelus japonicus et digènes comme Glomericirrus amadai et Terranova aetoplatea[1].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, japonica fait référence à son lieu de découverte.
 </t>
         </is>
       </c>
@@ -671,10 +691,21 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Écologie et environnement</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Proies</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hime japonica se nourrit principalement de poissons osseux et de crustacés de taille inférieure à la sienne.
+</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -697,10 +728,77 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Parasites</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hime japonica est l'hôte de plusieurs endoparasites nématodes comme Pseudopecoelus japonicus et digènes comme Glomericirrus amadai et Terranova aetoplatea.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hime_japonica</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hime_japonica</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et environnement</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hime_japonica</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hime_japonica</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>(en) A. Günther, « Preliminary notes on new fishes collected in Japan during the expedition of H.M.S. ‘Challenger’ », Annals and Magazine of Natural History, Londres, vol. 20, no 119,‎ novembre 1877, p. 444 (ISSN 0374-5481, OCLC 1481361, DOI 10.1080/00222937708682260, lire en ligne)</t>
         </is>
